--- a/data/pravno/zakoni/Kazneni-zakon.pdf.hwaifs/tables/py/gmft/df.tables-0.xlsx
+++ b/data/pravno/zakoni/Kazneni-zakon.pdf.hwaifs/tables/py/gmft/df.tables-0.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,11 +422,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>međunarodnim pravom počinjena izvan područja Republike Hrvatske</t>
-        </is>
-      </c>
+      <c r="B1" t="inlineStr"/>
       <c r="C1" t="inlineStr"/>
     </row>
     <row r="2">
@@ -435,7 +431,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Članak 16.</t>
+          <t>međunarodnim pravom počinjena izvan područja Republike Hrvatske</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -446,14 +442,10 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kazneno zakonodavstvo Republike Hrvatske primjenjuje se prema svakome tko izvan područja počini kazneno djelo iz članka 88., članka 90., članka 91., članka 97., članka članka 105. i članka 106. ovoga Zakona, kao i kazneno djelo koje je Republika prema međunarodnom ugovoru obvezna kažnjavati i kada je počinjeno izvan područja Republike Hrvatske.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>njezina 104., Hrvatska</t>
-        </is>
-      </c>
+          <t>Članak 16.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -461,12 +453,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Primjena kaznenog zakonodavstva za ostala kaznena djela počinjena izvan Republike Hrvatske</t>
+          <t>Kazneno zakonodavstvo Republike Hrvatske primjenjuje se prema svakome tko izvan područja počini kazneno djelo iz članka 88., članka 90., članka 91., članka 97., članka članka 105. i članka 106. ovoga Zakona, kao i kazneno djelo koje je Republika prema međunarodnom ugovoru obvezna kažnjavati i kada je počinjeno izvan Republike Hrvatske.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>područja</t>
+          <t>njezina 104., Hrvatska područja</t>
         </is>
       </c>
     </row>
@@ -476,10 +468,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Članak 17.</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>Primjena kaznenog zakonodavstva za ostala kaznena djela počinjena izvan Republike Hrvatske</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>područja</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -487,14 +483,10 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(1) Kazneno zakonodavstvo Republike Hrvatske primjenjuje se prema strancu koji područja Republike Hrvatske počini kazneno djelo za koje se po hrvatskom može izreći kazna zatvora od pet godina ili teža kazna, a ne radi se o slučajevima iz do 16. ovoga Zakona, ako je to kazneno djelo kažnjivo i prema zakonu države u kojoj počinjeno i ako je izručenje počinitelja zakonom ili međunarodnim ugovorom do njega nije došlo.</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>izvan zakonodavstvu članka 13. je dopušteno, ali</t>
-        </is>
-      </c>
+          <t>Članak 17.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -502,10 +494,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(2) U slučaju iz stavka 1. ovoga članka sud ne može izreći težu kaznu od one koja je propisana zakonom zemlje u kojoj je kazneno djelo počinjeno.</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>(1) Kazneno zakonodavstvo Republike Hrvatske primjenjuje se prema strancu koji područja Republike Hrvatske počini kazneno djelo za koje se po hrvatskom može izreći kazna zatvora od pet godina ili teža kazna, a ne radi se o slučajevima iz do 16. ovoga Zakona, ako je to kazneno djelo kažnjivo i prema zakonu države u kojoj počinjeno i ako je izručenje počinitelja zakonom ili međunarodnim ugovorom do njega nije došlo.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>izvan zakonodavstvu članka 13. je dopušteno, ali</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -513,14 +509,10 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Posebnosti glede pokretanja kaznenog postupka za kaznena djela počinjena područja Republike Hrvatske</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>izvan</t>
-        </is>
-      </c>
+          <t>(2) U slučaju iz stavka 1. ovoga članka sud ne može izreći težu kaznu od one koja je propisana zakonom zemlje u kojoj je kazneno djelo počinjeno.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -528,12 +520,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Članak 18. (1) Kad je u slučaju primjene kaznenog zakonodavstva Republike Hrvatske prema</t>
+          <t>Posebnosti glede pokretanja kaznenog postupka za kaznena djela počinjena područja Republike Hrvatske</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>odredbama</t>
+          <t>izvan</t>
         </is>
       </c>
     </row>
@@ -543,14 +535,10 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>članka 13. ovoga Zakona kazneni postupak pravomoćno dovršen u stranoj državi, državni odvjetnik može odustati od kaznenog progona. (2) U slučajevima iz članka 14. ovoga Zakona kazneni postupak radi primjene</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>glavni kaznenog</t>
-        </is>
-      </c>
+          <t>Članak 18.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -558,10 +546,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>zakonodavstva Republike Hrvatske neće se pokrenuti:</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>(1) Kad je u slučaju primjene kaznenog zakonodavstva Republike Hrvatske prema članka 13. ovoga Zakona kazneni postupak pravomoćno dovršen u stranoj državi, državni odvjetnik može odustati od kaznenog progona.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>odredbama glavni</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -569,12 +561,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1. ako je pravomoćnom presudom izrečena kazna izvršena ili je u postupku izvršenja ne može biti izvršena prema zakonu države u kojoj je osoba osuđena,</t>
+          <t>(2) U slučajevima iz članka 14. ovoga Zakona kazneni postupak radi primjene zakonodavstva Republike Hrvatske neće se pokrenuti:</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ili više</t>
+          <t>kaznenog</t>
         </is>
       </c>
     </row>
@@ -584,10 +576,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>1. ako je pravomoćnom presudom izrečena kazna izvršena ili je u postupku izvršenja ne može biti izvršena prema zakonu države u kojoj je osoba osuđena,</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ili više</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>2. ako je počinitelj u stranoj državi pravomoćnom presudom oslobođen ili mu je zakonu države u kojoj je kazneno djelo počinio oproštena,</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>kazna po</t>
         </is>
